--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Automation_PFE\TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472EB344-4967-4B09-B02B-FA2F89233135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EDDF4E-44E3-494F-887A-47E2871FA1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -1,49 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Automation_PFE\TestAutomation\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EDDF4E-44E3-494F-887A-47E2871FA1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>testautosujet10</t>
-  </si>
-  <si>
-    <t>Azerty123!</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -164,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -198,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -232,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -367,44 +351,82 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Password</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Count</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="str">
+        <v>testautosujet10</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Azerty123!</v>
+      </c>
+      <c r="C2" t="str">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -421,7 +421,7 @@
         <v>Azerty123!</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -421,7 +421,7 @@
         <v>Azerty123!</v>
       </c>
       <c r="C2" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
